--- a/data/Talcahuano.xlsx
+++ b/data/Talcahuano.xlsx
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,11 +3607,11 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>Soluciones Marítimas Integrales S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>30</v>
+        <v>10826</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Soluciones Marítimas Integrales S.A.</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>10826</v>
+        <v>30</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,16 +3698,16 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,16 +3746,16 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>7500</v>
+        <v>80</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>80</v>
+        <v>7500</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
+          <t>Proyecto Muelle Bío Bío (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>Frank Stengel Meierdiks</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>4000</v>
+        <v>355</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Proyecto Muelle Bío Bío (e-seia)</t>
+          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Frank Stengel Meierdiks</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>355</v>
+        <v>4000</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
+          <t>Terminal de Buses Hualpencillo</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
+          <t>Transportes Hualpén S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Terminal de Buses Hualpencillo</t>
+          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Transportes Hualpén S.A.</t>
+          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">

--- a/data/Talcahuano.xlsx
+++ b/data/Talcahuano.xlsx
@@ -13316,7 +13316,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">

--- a/data/Talcahuano.xlsx
+++ b/data/Talcahuano.xlsx
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,11 +3607,11 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Soluciones Marítimas Integrales S.A.</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>10826</v>
+        <v>30</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3620,12 +3620,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>Soluciones Marítimas Integrales S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>30</v>
+        <v>10826</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,16 +3698,16 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,16 +3746,16 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,16 +7730,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>80</v>
+        <v>7500</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7748,12 +7748,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>7500</v>
+        <v>80</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -13048,7 +13048,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Proyecto Muelle Bío Bío (e-seia)</t>
+          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -13063,11 +13063,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Frank Stengel Meierdiks</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>355</v>
+        <v>4000</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
@@ -13076,12 +13076,12 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
+          <t>Proyecto Muelle Bío Bío (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>Frank Stengel Meierdiks</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>4000</v>
+        <v>355</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Terminal de Buses Hualpencillo</t>
+          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Transportes Hualpén S.A.</t>
+          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
+          <t>Terminal de Buses Hualpencillo</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
+          <t>Transportes Hualpén S.A.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">

--- a/data/Talcahuano.xlsx
+++ b/data/Talcahuano.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Talcahuano.xlsx
+++ b/data/Talcahuano.xlsx
@@ -16231,7 +16231,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">

--- a/data/Talcahuano.xlsx
+++ b/data/Talcahuano.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sociedad Pesquera Landes S.A.</t>
+          <t>SOCIEDAD PESQUERA LANDES S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -9751,7 +9751,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Sociedad Pesquera Landes S.A.</t>
+          <t>SOCIEDAD PESQUERA LANDES S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">

--- a/data/Talcahuano.xlsx
+++ b/data/Talcahuano.xlsx
@@ -16711,7 +16711,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>GASCO Concepción S.A.</t>
+          <t>Gas Sur S.A.</t>
         </is>
       </c>
       <c r="F341" t="n">

--- a/data/Talcahuano.xlsx
+++ b/data/Talcahuano.xlsx
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Soluciones Marítimas Integrales S.A.</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>10826</v>
+        <v>30</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>Soluciones Marítimas Integrales S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>30</v>
+        <v>10826</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,16 +3746,16 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,16 +3794,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>80</v>
+        <v>7500</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>7500</v>
+        <v>80</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Proyecto Muelle Bío Bío (e-seia)</t>
+          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Frank Stengel Meierdiks</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>355</v>
+        <v>4000</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
+          <t>Proyecto Muelle Bío Bío (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>Frank Stengel Meierdiks</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>4000</v>
+        <v>355</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Terminal de Buses Hualpencillo</t>
+          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Transportes Hualpén S.A.</t>
+          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
+          <t>Terminal de Buses Hualpencillo</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
+          <t>Transportes Hualpén S.A.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">

--- a/data/Talcahuano.xlsx
+++ b/data/Talcahuano.xlsx
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,11 +3655,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>Soluciones Marítimas Integrales S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>30</v>
+        <v>10826</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -3668,12 +3668,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Soluciones Marítimas Integrales S.A.</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>10826</v>
+        <v>30</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,16 +3746,16 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,16 +3794,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>7500</v>
+        <v>80</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>80</v>
+        <v>7500</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -13096,7 +13096,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
+          <t>Proyecto Muelle Bío Bío (e-seia)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13111,11 +13111,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>Frank Stengel Meierdiks</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>4000</v>
+        <v>355</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
@@ -13124,12 +13124,12 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Proyecto Muelle Bío Bío (e-seia)</t>
+          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Frank Stengel Meierdiks</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>355</v>
+        <v>4000</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
+          <t>Terminal de Buses Hualpencillo</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
+          <t>Transportes Hualpén S.A.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Terminal de Buses Hualpencillo</t>
+          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Transportes Hualpén S.A.</t>
+          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">

--- a/data/Talcahuano.xlsx
+++ b/data/Talcahuano.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/01/2023</t>
+          <t>23/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Talcahuano.xlsx
+++ b/data/Talcahuano.xlsx
@@ -12583,7 +12583,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Unifish Canning S.A.</t>
+          <t>Camanchaca Pesca Sur S.A.</t>
         </is>
       </c>
       <c r="F255" t="n">

--- a/data/Talcahuano.xlsx
+++ b/data/Talcahuano.xlsx
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Soluciones Marítimas Integrales S.A.</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>10826</v>
+        <v>30</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>Soluciones Marítimas Integrales S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>30</v>
+        <v>10826</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,16 +3794,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>80</v>
+        <v>7500</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>7500</v>
+        <v>80</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Proyecto Muelle Bío Bío (e-seia)</t>
+          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Frank Stengel Meierdiks</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>355</v>
+        <v>4000</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
+          <t>Proyecto Muelle Bío Bío (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>Frank Stengel Meierdiks</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>4000</v>
+        <v>355</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Terminal de Buses Hualpencillo</t>
+          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Transportes Hualpén S.A.</t>
+          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
+          <t>Terminal de Buses Hualpencillo</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16471,11 +16471,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
+          <t>Transportes Hualpén S.A.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16484,12 +16484,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">

--- a/data/Talcahuano.xlsx
+++ b/data/Talcahuano.xlsx
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>Soluciones Marítimas Integrales S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>30</v>
+        <v>10826</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Soluciones Marítimas Integrales S.A.</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>10826</v>
+        <v>30</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,16 +3794,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>7500</v>
+        <v>80</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>80</v>
+        <v>7500</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
+          <t>Proyecto Muelle Bío Bío (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>Frank Stengel Meierdiks</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>4000</v>
+        <v>355</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Proyecto Muelle Bío Bío (e-seia)</t>
+          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Frank Stengel Meierdiks</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>355</v>
+        <v>4000</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
+          <t>Terminal de Buses Hualpencillo</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
+          <t>Transportes Hualpén S.A.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Terminal de Buses Hualpencillo</t>
+          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16471,11 +16471,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Transportes Hualpén S.A.</t>
+          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16484,12 +16484,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">

--- a/data/Talcahuano.xlsx
+++ b/data/Talcahuano.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/03/2023</t>
+          <t>22/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Talcahuano.xlsx
+++ b/data/Talcahuano.xlsx
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Soluciones Marítimas Integrales S.A.</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>10826</v>
+        <v>30</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>Soluciones Marítimas Integrales S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>30</v>
+        <v>10826</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,16 +3794,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>80</v>
+        <v>7500</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>7500</v>
+        <v>80</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Proyecto Muelle Bío Bío (e-seia)</t>
+          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Frank Stengel Meierdiks</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>355</v>
+        <v>4000</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
+          <t>Proyecto Muelle Bío Bío (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>Frank Stengel Meierdiks</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>4000</v>
+        <v>355</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Optimización de Producción y Calidad de Combustibles</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16082,16 +16082,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>2500</v>
+        <v>75200</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Optimización de Producción y Calidad de Combustibles</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16130,16 +16130,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>75200</v>
+        <v>2500</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Terminal de Buses Hualpencillo</t>
+          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Transportes Hualpén S.A.</t>
+          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
+          <t>Terminal de Buses Hualpencillo</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16471,11 +16471,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
+          <t>Transportes Hualpén S.A.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16484,12 +16484,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">

--- a/data/Talcahuano.xlsx
+++ b/data/Talcahuano.xlsx
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,11 +3703,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>Soluciones Marítimas Integrales S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>30</v>
+        <v>10826</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Soluciones Marítimas Integrales S.A.</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>10826</v>
+        <v>30</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,16 +3794,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,16 +7826,16 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>7500</v>
+        <v>80</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -7844,12 +7844,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>80</v>
+        <v>7500</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
+          <t>Proyecto Muelle Bío Bío (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13159,11 +13159,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>Frank Stengel Meierdiks</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>4000</v>
+        <v>355</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Proyecto Muelle Bío Bío (e-seia)</t>
+          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Frank Stengel Meierdiks</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>355</v>
+        <v>4000</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -16072,7 +16072,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Optimización de Producción y Calidad de Combustibles</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -16082,16 +16082,16 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>75200</v>
+        <v>2500</v>
       </c>
       <c r="G328" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Optimización de Producción y Calidad de Combustibles</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16130,16 +16130,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>2500</v>
+        <v>75200</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16408,7 +16408,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
+          <t>Terminal de Buses Hualpencillo</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -16423,11 +16423,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
+          <t>Transportes Hualpén S.A.</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G335" t="inlineStr">
         <is>
@@ -16436,12 +16436,12 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Terminal de Buses Hualpencillo</t>
+          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16471,11 +16471,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Transportes Hualpén S.A.</t>
+          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16484,12 +16484,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">

--- a/data/Talcahuano.xlsx
+++ b/data/Talcahuano.xlsx
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Soluciones Marítimas Integrales S.A.</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>10826</v>
+        <v>30</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,11 +3799,11 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>Soluciones Marítimas Integrales S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>30</v>
+        <v>10826</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,16 +3890,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>80</v>
+        <v>7500</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>7500</v>
+        <v>80</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Proyecto Muelle Bío Bío (e-seia)</t>
+          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Frank Stengel Meierdiks</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>355</v>
+        <v>4000</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
+          <t>Proyecto Muelle Bío Bío (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>Frank Stengel Meierdiks</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>4000</v>
+        <v>355</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Optimización de Producción y Calidad de Combustibles</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16130,16 +16130,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>2500</v>
+        <v>75200</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Optimización de Producción y Calidad de Combustibles</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16178,16 +16178,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>75200</v>
+        <v>2500</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Terminal de Buses Hualpencillo</t>
+          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16471,11 +16471,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Transportes Hualpén S.A.</t>
+          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16484,12 +16484,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
+          <t>Terminal de Buses Hualpencillo</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16519,11 +16519,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
+          <t>Transportes Hualpén S.A.</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16532,12 +16532,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">

--- a/data/Talcahuano.xlsx
+++ b/data/Talcahuano.xlsx
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,11 +3751,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>Soluciones Marítimas Integrales S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>30</v>
+        <v>10826</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -3764,12 +3764,12 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,11 +3799,11 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Soluciones Marítimas Integrales S.A.</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>10826</v>
+        <v>30</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,16 +3842,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,16 +3890,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,16 +7874,16 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>7500</v>
+        <v>80</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -7892,12 +7892,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,16 +7922,16 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>80</v>
+        <v>7500</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -7940,12 +7940,12 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -13192,7 +13192,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
+          <t>Proyecto Muelle Bío Bío (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13207,11 +13207,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>Frank Stengel Meierdiks</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>4000</v>
+        <v>355</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13220,12 +13220,12 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13240,7 +13240,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Proyecto Muelle Bío Bío (e-seia)</t>
+          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13255,11 +13255,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Frank Stengel Meierdiks</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>355</v>
+        <v>4000</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13268,12 +13268,12 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -16120,7 +16120,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Optimización de Producción y Calidad de Combustibles</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -16130,16 +16130,16 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>ENAP REFINERIAS S.A</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>75200</v>
+        <v>2500</v>
       </c>
       <c r="G329" t="inlineStr">
         <is>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Optimización de Producción y Calidad de Combustibles</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16178,16 +16178,16 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>ENAP REFINERIAS S.A</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>2500</v>
+        <v>75200</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
+          <t>Terminal de Buses Hualpencillo</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -16471,11 +16471,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
+          <t>Transportes Hualpén S.A.</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G336" t="inlineStr">
         <is>
@@ -16484,12 +16484,12 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
@@ -16504,7 +16504,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Terminal de Buses Hualpencillo</t>
+          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -16519,11 +16519,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Transportes Hualpén S.A.</t>
+          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="G337" t="inlineStr">
         <is>
@@ -16532,12 +16532,12 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">

--- a/data/Talcahuano.xlsx
+++ b/data/Talcahuano.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>05/05/2023</t>
+          <t>12/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Talcahuano.xlsx
+++ b/data/Talcahuano.xlsx
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,11 +3847,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>Soluciones Marítimas Integrales S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>30</v>
+        <v>10826</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,11 +3895,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Soluciones Marítimas Integrales S.A.</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>10826</v>
+        <v>30</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,16 +3938,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,16 +3986,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>7500</v>
+        <v>80</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>80</v>
+        <v>7500</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
+          <t>Proyecto Muelle Bío Bío (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>Frank Stengel Meierdiks</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>4000</v>
+        <v>355</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Proyecto Muelle Bío Bío (e-seia)</t>
+          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13351,11 +13351,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Frank Stengel Meierdiks</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>355</v>
+        <v>4000</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
+          <t>Terminal de Buses Hualpencillo</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16567,11 +16567,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
+          <t>Transportes Hualpén S.A.</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16580,12 +16580,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Terminal de Buses Hualpencillo</t>
+          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Transportes Hualpén S.A.</t>
+          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">

--- a/data/Talcahuano.xlsx
+++ b/data/Talcahuano.xlsx
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,11 +3847,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Soluciones Marítimas Integrales S.A.</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>10826</v>
+        <v>30</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3860,12 +3860,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,11 +3895,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>Soluciones Marítimas Integrales S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>30</v>
+        <v>10826</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,16 +3938,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,16 +3986,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,16 +7970,16 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>80</v>
+        <v>7500</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -7988,12 +7988,12 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>7500</v>
+        <v>80</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -13288,7 +13288,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Proyecto Muelle Bío Bío (e-seia)</t>
+          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13303,11 +13303,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Frank Stengel Meierdiks</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>355</v>
+        <v>4000</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13316,12 +13316,12 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
+          <t>Proyecto Muelle Bío Bío (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13351,11 +13351,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>Frank Stengel Meierdiks</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>4000</v>
+        <v>355</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -16552,7 +16552,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Terminal de Buses Hualpencillo</t>
+          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -16567,11 +16567,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Transportes Hualpén S.A.</t>
+          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="G338" t="inlineStr">
         <is>
@@ -16580,12 +16580,12 @@
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
+          <t>Terminal de Buses Hualpencillo</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
+          <t>Transportes Hualpén S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">

--- a/data/Talcahuano.xlsx
+++ b/data/Talcahuano.xlsx
@@ -12775,7 +12775,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Camanchaca Pesca Sur S.A.</t>
+          <t>PACIFICBLU SPA</t>
         </is>
       </c>
       <c r="F259" t="n">

--- a/data/Talcahuano.xlsx
+++ b/data/Talcahuano.xlsx
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,11 +3895,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>Soluciones Marítimas Integrales S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>30</v>
+        <v>10826</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,11 +3943,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Soluciones Marítimas Integrales S.A.</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>10826</v>
+        <v>30</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,16 +3986,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,16 +4034,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>7500</v>
+        <v>80</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>80</v>
+        <v>7500</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
+          <t>Proyecto Muelle Bío Bío (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13351,11 +13351,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>Frank Stengel Meierdiks</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>4000</v>
+        <v>355</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13384,7 +13384,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Proyecto Muelle Bío Bío (e-seia)</t>
+          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13399,11 +13399,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Frank Stengel Meierdiks</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>355</v>
+        <v>4000</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13412,12 +13412,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
+          <t>Terminal de Buses Hualpencillo</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
+          <t>Transportes Hualpén S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Terminal de Buses Hualpencillo</t>
+          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Transportes Hualpén S.A.</t>
+          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">

--- a/data/Talcahuano.xlsx
+++ b/data/Talcahuano.xlsx
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,11 +3895,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Soluciones Marítimas Integrales S.A.</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>10826</v>
+        <v>30</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,11 +3943,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>Soluciones Marítimas Integrales S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>30</v>
+        <v>10826</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,16 +3986,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,16 +4034,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,16 +8018,16 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>80</v>
+        <v>7500</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -8036,12 +8036,12 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>7500</v>
+        <v>80</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -13336,7 +13336,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Proyecto Muelle Bío Bío (e-seia)</t>
+          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13351,11 +13351,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Frank Stengel Meierdiks</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>355</v>
+        <v>4000</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13364,12 +13364,12 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13384,7 +13384,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
+          <t>Proyecto Muelle Bío Bío (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13399,11 +13399,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>Frank Stengel Meierdiks</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>4000</v>
+        <v>355</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13412,12 +13412,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -16600,7 +16600,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Terminal de Buses Hualpencillo</t>
+          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -16615,11 +16615,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Transportes Hualpén S.A.</t>
+          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="G339" t="inlineStr">
         <is>
@@ -16628,12 +16628,12 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
+          <t>Terminal de Buses Hualpencillo</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
+          <t>Transportes Hualpén S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">

--- a/data/Talcahuano.xlsx
+++ b/data/Talcahuano.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>02/10/2023</t>
+          <t>10/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Talcahuano.xlsx
+++ b/data/Talcahuano.xlsx
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,11 +3943,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>Soluciones Marítimas Integrales S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>30</v>
+        <v>10826</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Soluciones Marítimas Integrales S.A.</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>10826</v>
+        <v>30</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,16 +4034,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,16 +4082,16 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>7500</v>
+        <v>80</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>80</v>
+        <v>7500</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -13384,7 +13384,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
+          <t>Proyecto Muelle Bío Bío (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13399,11 +13399,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>Frank Stengel Meierdiks</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>4000</v>
+        <v>355</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13412,12 +13412,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Proyecto Muelle Bío Bío (e-seia)</t>
+          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13447,11 +13447,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Frank Stengel Meierdiks</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>355</v>
+        <v>4000</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
+          <t>Terminal de Buses Hualpencillo</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
+          <t>Transportes Hualpén S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Terminal de Buses Hualpencillo</t>
+          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,11 +16711,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Transportes Hualpén S.A.</t>
+          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">

--- a/data/Talcahuano.xlsx
+++ b/data/Talcahuano.xlsx
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,11 +3943,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Soluciones Marítimas Integrales S.A.</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>10826</v>
+        <v>30</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>Soluciones Marítimas Integrales S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>30</v>
+        <v>10826</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,16 +4034,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,16 +4082,16 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>80</v>
+        <v>7500</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>7500</v>
+        <v>80</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -13384,7 +13384,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Proyecto Muelle Bío Bío (e-seia)</t>
+          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13399,11 +13399,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Frank Stengel Meierdiks</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>355</v>
+        <v>4000</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13412,12 +13412,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
+          <t>Proyecto Muelle Bío Bío (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13447,11 +13447,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>Frank Stengel Meierdiks</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>4000</v>
+        <v>355</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Terminal de Buses Hualpencillo</t>
+          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Transportes Hualpén S.A.</t>
+          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
+          <t>Terminal de Buses Hualpencillo</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,11 +16711,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
+          <t>Transportes Hualpén S.A.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">

--- a/data/Talcahuano.xlsx
+++ b/data/Talcahuano.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/10/2023</t>
+          <t>02/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,11 +3943,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>Soluciones Marítimas Integrales S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>30</v>
+        <v>10826</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Instalación de muelle para amparar futuro Puerto Artesanal para naves menores</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,11 +3991,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Soluciones Marítimas Integrales S.A.</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>10826</v>
+        <v>30</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4004,12 +4004,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6665473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6674765&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,16 +4034,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>miguel maritano industria de jabones S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4052,12 +4052,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Regularización Ambiental M. Maritano Industria de Jabones S.A.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,16 +4082,16 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>miguel maritano industria de jabones S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6608973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,16 +8066,16 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Octava</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>FOSFOQUIM S.A</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>7500</v>
+        <v>80</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -8084,12 +8084,12 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>AUMENTO DE CAPACIDAD DE PRODUCCIÓN DE PLANTA PRODUCTORA DE SULFHIDRATO DE SODIO. TALCAHUANO, VIII REGIÓN sulfhidrato de sodio (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,16 +8114,16 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Octava</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>FOSFOQUIM S.A</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>80</v>
+        <v>7500</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -8132,12 +8132,12 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2201843&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -13384,7 +13384,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
+          <t>Proyecto Muelle Bío Bío (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13399,11 +13399,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Camanchaca S.A.</t>
+          <t>Frank Stengel Meierdiks</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>4000</v>
+        <v>355</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13412,12 +13412,12 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Proyecto Muelle Bío Bío (e-seia)</t>
+          <t>Planta Elaboradora de Conservas y Congelados de Pescado (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13447,11 +13447,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Frank Stengel Meierdiks</t>
+          <t>Camanchaca S.A.</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>355</v>
+        <v>4000</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13460,12 +13460,12 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100816&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -16648,7 +16648,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
+          <t>Terminal de Buses Hualpencillo</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -16663,11 +16663,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
+          <t>Transportes Hualpén S.A.</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G340" t="inlineStr">
         <is>
@@ -16676,12 +16676,12 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Terminal de Buses Hualpencillo</t>
+          <t>Terminal de Buses Tucapel-Huertos Familiares</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -16711,11 +16711,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Transportes Hualpén S.A.</t>
+          <t>Sociedad de Transporte de Pasajeros Buses Tucapel S.A.</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="G341" t="inlineStr">
         <is>
@@ -16724,12 +16724,12 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1228&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1229&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
